--- a/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB88AECD-0E07-49F6-808C-8E6B3CC2C35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7134AEE5-0A91-414F-B5F4-0950856AB0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Бердянск</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>паллеты</t>
+  </si>
+  <si>
+    <t>ПРС</t>
   </si>
 </sst>
 </file>
@@ -874,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>15</v>
@@ -941,7 +944,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>15</v>
@@ -966,7 +969,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="7"/>
       <c r="L3" s="13">
-        <f t="shared" ref="L3:L9" si="0">B3-C3-F3-I3</f>
+        <f t="shared" ref="L3:L10" si="0">B3-C3-F3-I3</f>
         <v>0</v>
       </c>
     </row>
@@ -1065,9 +1068,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="15"/>
@@ -1079,57 +1082,76 @@
       <c r="I9" s="15"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="19">
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21">
-        <f>SUM(B3:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
-        <f>SUM(C3:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="22">
-        <f t="shared" ref="D10:K10" si="1">SUM(D3:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="B11" s="21">
+        <f>SUM(B3:B10)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <f>SUM(C3:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <f t="shared" ref="D11:K11" si="1">SUM(D3:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G11" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H11" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J11" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K11" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="24">
-        <f>SUM(L3:L9)</f>
+      <c r="L11" s="24">
+        <f>SUM(L3:L10)</f>
         <v>0</v>
       </c>
     </row>

--- a/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7134AEE5-0A91-414F-B5F4-0950856AB0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7ADE19-68EF-46D7-AD2F-671A30A8362A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Бердянск</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>ПРС</t>
+  </si>
+  <si>
+    <t>Бейдерман</t>
+  </si>
+  <si>
+    <t>4 машина</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -399,19 +405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -452,17 +445,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -547,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -566,13 +548,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,39 +872,44 @@
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="27" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
@@ -952,9 +937,18 @@
       <c r="K2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="24"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -968,12 +962,15 @@
       <c r="I3" s="6"/>
       <c r="J3" s="3"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="13">
-        <f t="shared" ref="L3:L10" si="0">B3-C3-F3-I3</f>
+      <c r="L3" s="6"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="13">
+        <f>B3-C3-F3-I3-L3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -987,12 +984,15 @@
       <c r="I4" s="4"/>
       <c r="J4" s="2"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="14">
-        <f t="shared" si="0"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="13">
+        <f t="shared" ref="O4:O11" si="0">B4-C4-F4-I4-L4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1006,12 +1006,15 @@
       <c r="I5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="14">
+      <c r="L5" s="4"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1025,12 +1028,15 @@
       <c r="I6" s="4"/>
       <c r="J6" s="2"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="14">
+      <c r="L6" s="4"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1044,14 +1050,17 @@
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="14">
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
@@ -1063,106 +1072,156 @@
       <c r="I8" s="4"/>
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="14">
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="14">
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19">
+      <c r="B11" s="15"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21">
-        <f>SUM(B3:B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="20">
-        <f>SUM(C3:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="22">
-        <f t="shared" ref="D11:K11" si="1">SUM(D3:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="B12" s="19">
+        <f>SUM(B3:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <f>SUM(C3:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" ref="D12:K12" si="1">SUM(D3:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H12" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K12" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="24">
-        <f>SUM(L3:L10)</f>
+      <c r="L12" s="18">
+        <f t="shared" ref="L12:N12" si="2">SUM(L3:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="22">
+        <f>SUM(O3:O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B12/4</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L1:L2"/>
+  <mergeCells count="7">
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7ADE19-68EF-46D7-AD2F-671A30A8362A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B38291-A0FD-4AE6-85A3-F11220765DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,12 +1207,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>B12/4</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="O1:O2"/>

--- a/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B38291-A0FD-4AE6-85A3-F11220765DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466DEB90-1146-45AD-B81B-B181A6F55AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Бердянск</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>4 машина</t>
+  </si>
+  <si>
+    <t>Малахутин</t>
   </si>
 </sst>
 </file>
@@ -857,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +991,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="13">
-        <f t="shared" ref="O4:O11" si="0">B4-C4-F4-I4-L4</f>
+        <f t="shared" ref="O4:O12" si="0">B4-C4-F4-I4-L4</f>
         <v>0</v>
       </c>
     </row>
@@ -1124,12 +1127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
@@ -1142,68 +1145,90 @@
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
       <c r="O11" s="13">
+        <f t="shared" ref="O11" si="1">B11-C11-F11-I11-L11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
-        <f>SUM(B3:B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
-        <f>SUM(C3:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="20">
-        <f t="shared" ref="D12:K12" si="1">SUM(D3:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" ref="L12:N12" si="2">SUM(L3:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="20">
+      <c r="B13" s="19">
+        <f>SUM(B3:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <f>SUM(C3:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" ref="D13:K13" si="2">SUM(D3:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="21">
+      <c r="F13" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="22">
-        <f>SUM(O3:O11)</f>
+      <c r="G13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" ref="L13:N13" si="3">SUM(L3:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="22">
+        <f>SUM(O3:O12)</f>
         <v>0</v>
       </c>
     </row>

--- a/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины ПОКОМ КИ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466DEB90-1146-45AD-B81B-B181A6F55AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE36C92-20AB-4768-8880-082203AE74D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Бердянск</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Малахутин</t>
+  </si>
+  <si>
+    <t>НПК ЛП</t>
   </si>
 </sst>
 </file>
@@ -860,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +994,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="13">
-        <f t="shared" ref="O4:O12" si="0">B4-C4-F4-I4-L4</f>
+        <f t="shared" ref="O4:O13" si="0">B4-C4-F4-I4-L4</f>
         <v>0</v>
       </c>
     </row>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
@@ -1145,16 +1148,16 @@
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
       <c r="O11" s="13">
-        <f t="shared" ref="O11" si="1">B11-C11-F11-I11-L11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
@@ -1167,68 +1170,90 @@
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
       <c r="O12" s="13">
+        <f t="shared" ref="O12" si="1">B12-C12-F12-I12-L12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19">
-        <f>SUM(B3:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="18">
-        <f>SUM(C3:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="20">
-        <f t="shared" ref="D13:K13" si="2">SUM(D3:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
+      <c r="B14" s="19">
+        <f>SUM(B3:B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <f>SUM(C3:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:K14" si="2">SUM(D3:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F14" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="18">
-        <f t="shared" ref="L13:N13" si="3">SUM(L3:L12)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="20">
+      <c r="L14" s="18">
+        <f t="shared" ref="L14:N14" si="3">SUM(L3:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N14" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="22">
-        <f>SUM(O3:O12)</f>
+      <c r="O14" s="22">
+        <f>SUM(O3:O13)</f>
         <v>0</v>
       </c>
     </row>
